--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comer\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E24A76-81EA-4869-B270-126869986BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{8F642101-E425-41E4-B2BC-052E2EB38E17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,12 +81,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,8 +107,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,79 +428,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CE445F-108E-4BA1-B118-A498737EB6C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="150.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comer\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF971DE-A238-4977-9713-0006309F7DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,12 +114,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -428,11 +438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +456,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -496,7 +506,7 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF971DE-A238-4977-9713-0006309F7DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BA35A8-737A-43B4-B02B-19385FB69D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Acutalizar icono de agregar en todos los apartados , cambiar por un singno de mas  o la palabrea a agregar o el icono de mas la palabra</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Modulo Descuentos a clientes ,en este aparatdo se darian de alta los tipos de clientes con sus respecitvos descuentos que mas adelante cuando  des de alta un cliente en el apartado tipo cliente deberia de salir los de esta tabla</t>
   </si>
   <si>
-    <t>Modulo de Estaciones: aquí  falta un combo  con la sucursal, ya vi que tienes el de alamacen, en este caso  en el combo de alamcen debes de mostrar todos los que sean igual al tipo de almacen " tienda" y mostrar el de la sucursal desabilitado el de alamcen no por si tiene 3 tiendas eleijan  cual</t>
-  </si>
-  <si>
     <t>Modulo de Ventas: el de la cantidad me permite escribir letras</t>
   </si>
   <si>
@@ -67,6 +64,42 @@
   </si>
   <si>
     <t>cancelar facturacion</t>
+  </si>
+  <si>
+    <t>Agregar Bitcoras</t>
+  </si>
+  <si>
+    <t>Modulo de Ventas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcular un rango en automatico del mayor hacia el infinito </t>
+  </si>
+  <si>
+    <t>Modulo de Usuarios</t>
+  </si>
+  <si>
+    <t>Cambiar al secuencia de los combos 1.- Alamcen , Sucursal  , Rol y hacerlos dependientes uno de cada uno es decir primero seleccionar Sucursal , Luego Almacen , y por ultimo el rol , no puede seleccionar ninguno otra opcion si no esta seleccionada una sucursal, tambien agregar un item que diga --Selecciona--</t>
+  </si>
+  <si>
+    <t>Cuando agrego un usuario con el rol de montacargista la tabla lo pinta como sin rol</t>
+  </si>
+  <si>
+    <t>Modulo Agregar Estacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe aparece el combo de sucursucal seleccionada la sucursal 1 o la predeterminda de solo lectura </t>
+  </si>
+  <si>
+    <t>Modulo Descuentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar la funcion de Agregar o descativar el Descuento </t>
+  </si>
+  <si>
+    <t>Todos los Modulos</t>
+  </si>
+  <si>
+    <t>Los input type que son de numeros solo aceptar numeros con 2 decimales</t>
   </si>
 </sst>
 </file>
@@ -439,75 +472,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A14" sqref="A14:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="150.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="138.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BA35A8-737A-43B4-B02B-19385FB69D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2ADC8F-153E-4F35-BCC0-60175DFA0149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,16 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>Acutalizar icono de agregar en todos los apartados , cambiar por un singno de mas  o la palabrea a agregar o el icono de mas la palabra</t>
-  </si>
-  <si>
-    <t>Modulo Descuentos a clientes ,en este aparatdo se darian de alta los tipos de clientes con sus respecitvos descuentos que mas adelante cuando  des de alta un cliente en el apartado tipo cliente deberia de salir los de esta tabla</t>
-  </si>
-  <si>
-    <t>Modulo de Ventas: el de la cantidad me permite escribir letras</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -57,9 +49,6 @@
     <t xml:space="preserve">Desarrollo los querys del dashboard (1.-Cuanto llevan vendido las estaciones por diaen tiempo real, 2.-Top 5 de los productos vendidos  tiempo real , Top 5 de Clientes mensuales, Venta Total en tiempo real) en tiempo real me refiero que la query es al dia de hoy </t>
   </si>
   <si>
-    <t xml:space="preserve">Modulo Ventas:Cuando se realiza la venta preguntar si quiere facturar </t>
-  </si>
-  <si>
     <t>Agregar loader en todas las peticiones por ajax</t>
   </si>
   <si>
@@ -100,6 +89,99 @@
   </si>
   <si>
     <t>Los input type que son de numeros solo aceptar numeros con 2 decimales</t>
+  </si>
+  <si>
+    <t>Modulo de dashboard</t>
+  </si>
+  <si>
+    <t>Todo el sistema</t>
+  </si>
+  <si>
+    <t>Modulo de ventas</t>
+  </si>
+  <si>
+    <t>agregar Async en todas las peticiones</t>
+  </si>
+  <si>
+    <t>Menudeo</t>
+  </si>
+  <si>
+    <t>Metrica</t>
+  </si>
+  <si>
+    <t>TotalPiezas &gt;=12</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>1 a 11</t>
+  </si>
+  <si>
+    <t>Costo / trapero</t>
+  </si>
+  <si>
+    <t>Rangos</t>
+  </si>
+  <si>
+    <t>Costo/Escoba</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>Cantidad Producto</t>
+  </si>
+  <si>
+    <t>Traperos</t>
+  </si>
+  <si>
+    <t>Escobas</t>
+  </si>
+  <si>
+    <t>cuchara</t>
+  </si>
+  <si>
+    <t>costo/cuchara</t>
+  </si>
+  <si>
+    <t>costo/cubeta</t>
+  </si>
+  <si>
+    <t>cubetas</t>
+  </si>
+  <si>
+    <t>Se debene ajustar los rangos de precios  debido a que existe un rango individual por productos, y una rango por cantidad de productos comprados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar combo de uso de cfdi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">agregar un check de desea factura  y quitar la venta de pregunta </t>
+  </si>
+  <si>
+    <t>Si desea factura debemos agregar el iva al producto si no factura no se carga el iva al  producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrear modal en editar ventas para la factura parar agregar el uso del cfdi, costo del iva </t>
+  </si>
+  <si>
+    <t>Agregar funcionalidad para cobro de iva en ventas , pasadas al dia de hoy , agregar un modal para uso de cfdi , generar el iva, la cajera lo recibe mostrar un input para dar cambio</t>
+  </si>
+  <si>
+    <t>Agregar funcionalidad para buscar productos , en sus diferentes ubicaciones , y sus diferentes costos</t>
+  </si>
+  <si>
+    <t>Cierre de caja  por exceso de efectivo ellos retiran dinero -&gt; guardado en la base de datos por dia hay de cuanto hizo el cierre , puede aver n por dia</t>
+  </si>
+  <si>
+    <t>Cierra de caja  al final del dia  -&gt; cuanto dinero tiene actualmente mas la sumatoria de los cierra por exceso de efectivo+</t>
+  </si>
+  <si>
+    <t>Productos en el ticket visualizar el ahorro del producto cuando existe descuento  por producto al final hacer la cuenta de el total menos el descuento igual a lo que tiene que pagar</t>
+  </si>
+  <si>
+    <t>Menu de control de television, para buscar producto con sus detalles y los cierres de caja</t>
   </si>
 </sst>
 </file>
@@ -115,18 +197,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -147,16 +223,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,127 +545,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="138.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A14" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D3FDA7-F80E-4CF3-BEA5-B6A446AE2A18}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>3.5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <f>H3*C2</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4">
+        <f>D2*H4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>2.5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5">
+        <f>H5*E3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <f>F6*H6</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:H14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comer\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2ADC8F-153E-4F35-BCC0-60175DFA0149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -55,12 +54,6 @@
     <t>cancelar facturacion</t>
   </si>
   <si>
-    <t>Agregar Bitcoras</t>
-  </si>
-  <si>
-    <t>Modulo de Ventas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Calcular un rango en automatico del mayor hacia el infinito </t>
   </si>
   <si>
@@ -70,9 +63,6 @@
     <t>Cambiar al secuencia de los combos 1.- Alamcen , Sucursal  , Rol y hacerlos dependientes uno de cada uno es decir primero seleccionar Sucursal , Luego Almacen , y por ultimo el rol , no puede seleccionar ninguno otra opcion si no esta seleccionada una sucursal, tambien agregar un item que diga --Selecciona--</t>
   </si>
   <si>
-    <t>Cuando agrego un usuario con el rol de montacargista la tabla lo pinta como sin rol</t>
-  </si>
-  <si>
     <t>Modulo Agregar Estacion</t>
   </si>
   <si>
@@ -97,9 +87,6 @@
     <t>Todo el sistema</t>
   </si>
   <si>
-    <t>Modulo de ventas</t>
-  </si>
-  <si>
     <t>agregar Async en todas las peticiones</t>
   </si>
   <si>
@@ -182,12 +169,18 @@
   </si>
   <si>
     <t>Menu de control de television, para buscar producto con sus detalles y los cierres de caja</t>
+  </si>
+  <si>
+    <t>Agregar Modulo Bitcoras</t>
+  </si>
+  <si>
+    <t>Agregar PDF impresión de codigos de barras al modulo de productos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,76 +556,67 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -640,23 +624,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -666,11 +637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D3FDA7-F80E-4CF3-BEA5-B6A446AE2A18}">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,30 +655,30 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>3.5</v>
@@ -722,15 +693,15 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -748,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <f>H3*C2</f>
@@ -757,13 +728,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <f>D2*H4</f>
@@ -793,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <f>H5*E3</f>
@@ -823,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J6">
         <f>F6*H6</f>
@@ -832,7 +803,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -888,52 +859,72 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comer\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoaj720209\Documents\proyectos\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>Agregar PDF impresión de codigos de barras al modulo de productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar </t>
+  </si>
+  <si>
+    <t>Agregar compras , idproveddor , producto cantidad precion productos fecha alta, estatus de compra  filtro proveedor rango de fechas y producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver facturas , estatus facturada cancelada o con error  rango de fechas </t>
   </si>
 </sst>
 </file>
@@ -540,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,15 +567,24 @@
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Agregar PDF impresión de codigos de barras al modulo de productos</t>
+  </si>
+  <si>
+    <t>agregar log para cuando se da de alta un producto( cuando aumenta el inventario)</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
@@ -927,6 +930,11 @@
         <v>47</v>
       </c>
     </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B9:H14"/>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\comer\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3C0180-65D9-441B-8050-119D8E03491D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DB4B21-0426-4AEC-B69C-1EE29AEA1833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -197,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -231,6 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -650,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,12 +877,12 @@
       <c r="H14" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\comer\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victor/Documents/Proyectos Web/comercializadora/Analisis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DB4B21-0426-4AEC-B69C-1EE29AEA1833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A07EB9-1EC0-FF41-9C56-D9105FE35581}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -236,10 +236,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,36 +556,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -593,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -601,7 +601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -609,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -617,7 +617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -625,7 +625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -633,7 +633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -641,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -659,20 +659,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -692,7 +692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -715,7 +715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -745,7 +745,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -760,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13</v>
       </c>
@@ -790,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>26</v>
       </c>
@@ -820,133 +820,133 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victor/Documents/Proyectos Web/comercializadora/Analisis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoaj720209\Documents\proyectos\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A07EB9-1EC0-FF41-9C56-D9105FE35581}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -184,12 +183,15 @@
   </si>
   <si>
     <t>agregar el combo de la sucursal para que pueda seleccionar el alamcen tipo tienda que le corresponde</t>
+  </si>
+  <si>
+    <t>90% Falta permitir hacer busquedad sin fechas,validar sesion activa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,39 +555,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -593,7 +598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -601,7 +606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -609,7 +614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -617,7 +622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -625,7 +630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -633,7 +638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -641,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -656,23 +661,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -692,7 +697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -715,7 +720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -745,7 +750,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -760,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -790,7 +795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>26</v>
       </c>
@@ -820,7 +825,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
@@ -831,7 +836,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -840,7 +845,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -849,7 +854,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -858,7 +863,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -867,7 +872,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -876,77 +881,77 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoaj720209\Documents\proyectos\comercializadora\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\comer\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E0EB6F-249D-4E81-8B53-5CDA5B714903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,14 +234,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,10 +561,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -661,11 +667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,6 +681,7 @@
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -826,139 +833,304 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="16">
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
     <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\comer\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yessy\Desktop\PROYECTO\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E0EB6F-249D-4E81-8B53-5CDA5B714903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C76E2A6-C179-412E-8533-CF55C15C108F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -186,7 +184,10 @@
     <t>agregar el combo de la sucursal para que pueda seleccionar el alamcen tipo tienda que le corresponde</t>
   </si>
   <si>
-    <t>90% Falta permitir hacer busquedad sin fechas,validar sesion activa</t>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Inicio</t>
   </si>
 </sst>
 </file>
@@ -202,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +222,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -234,20 +241,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,16 +593,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K17"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,304 +845,304 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yessy\Desktop\PROYECTO\comercializadora\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\comer\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C76E2A6-C179-412E-8533-CF55C15C108F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256298EE-0843-4777-B72E-39476B6D01E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -188,6 +190,9 @@
   </si>
   <si>
     <t>Inicio</t>
+  </si>
+  <si>
+    <t>falta bd</t>
   </si>
 </sst>
 </file>
@@ -246,17 +251,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,10 +598,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -680,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,62 +850,62 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
@@ -915,7 +920,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -930,219 +935,225 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\comer\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yessy\Desktop\PROYECTO\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256298EE-0843-4777-B72E-39476B6D01E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD520D18-0B4C-4AE1-A3A8-6274BD1CC93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -174,9 +172,6 @@
     <t>Menu de control de television, para buscar producto con sus detalles y los cierres de caja</t>
   </si>
   <si>
-    <t>Agregar Modulo Bitcoras</t>
-  </si>
-  <si>
     <t>Agregar PDF impresión de codigos de barras al modulo de productos</t>
   </si>
   <si>
@@ -189,10 +184,13 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Inicio</t>
-  </si>
-  <si>
     <t>falta bd</t>
+  </si>
+  <si>
+    <t>En curso</t>
+  </si>
+  <si>
+    <t>Agregar Modulo Bitacoras</t>
   </si>
 </sst>
 </file>
@@ -253,10 +251,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -578,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +592,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,15 +603,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>51</v>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -642,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:K28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,254 +907,254 @@
       <c r="H14" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yessy\Desktop\PROYECTO\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD520D18-0B4C-4AE1-A3A8-6274BD1CC93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1079BA-D163-49D3-9683-071D024DBB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -187,10 +187,13 @@
     <t>falta bd</t>
   </si>
   <si>
-    <t>En curso</t>
-  </si>
-  <si>
     <t>Agregar Modulo Bitacoras</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>para el 20 de mayo</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +234,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -244,22 +253,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,31 +584,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="37.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -606,7 +619,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -614,67 +627,79 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -851,60 +876,60 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -955,79 +980,79 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -1048,19 +1073,19 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -1093,68 +1118,68 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yessy\Desktop\PROYECTO\comercializadora\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1079BA-D163-49D3-9683-071D024DBB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCC89A-E7DB-46AC-9696-5ECAEEABEDD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>para el 20 de mayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faltan ver la cantidad de productos en alamcenes </t>
   </si>
 </sst>
 </file>
@@ -260,6 +263,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -269,7 +273,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,15 +587,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="37.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,7 +635,7 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -642,7 +646,7 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C6" t="s">
@@ -653,7 +657,7 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C7" t="s">
@@ -664,7 +668,7 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C8" t="s">
@@ -701,6 +705,11 @@
       </c>
       <c r="C12" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -713,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:K19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,291 +885,291 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
       <c r="L19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
       <c r="L25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\comer\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCC89A-E7DB-46AC-9696-5ECAEEABEDD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C70B8-D8C2-46D7-9EB0-F95A0E86748C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -264,14 +266,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:K20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,60 +887,60 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -989,79 +991,79 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -1082,19 +1084,19 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -1127,68 +1129,68 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\comer\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yessy\Desktop\PROYECTO\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9C70B8-D8C2-46D7-9EB0-F95A0E86748C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2437A-7EEC-49DE-899E-FE138583254E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -199,6 +197,9 @@
   </si>
   <si>
     <t xml:space="preserve">Faltan ver la cantidad de productos en alamcenes </t>
+  </si>
+  <si>
+    <t>Cambia icon de no resultados</t>
   </si>
 </sst>
 </file>
@@ -589,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,11 +635,11 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>53</v>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -712,6 +713,14 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:K22"/>
     </sheetView>
   </sheetViews>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yessy\Desktop\PROYECTO\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2437A-7EEC-49DE-899E-FE138583254E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C02222-CD51-464C-A9F9-5E1F62740FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Cambia icon de no resultados</t>
+  </si>
+  <si>
+    <t>Modulo Bitacoras</t>
+  </si>
+  <si>
+    <t>Agregar busqueda por folio(idPedidoInterno)</t>
   </si>
 </sst>
 </file>
@@ -267,14 +273,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,6 +727,14 @@
       </c>
       <c r="C14" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -896,60 +910,60 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -1030,49 +1044,49 @@
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -1093,19 +1107,19 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -1138,68 +1152,68 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yessy\Desktop\PROYECTO\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C02222-CD51-464C-A9F9-5E1F62740FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AC80B8-9726-46ED-B329-2E8286DB9D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -193,9 +193,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>para el 20 de mayo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Faltan ver la cantidad de productos en alamcenes </t>
   </si>
   <si>
@@ -206,6 +203,12 @@
   </si>
   <si>
     <t>Agregar busqueda por folio(idPedidoInterno)</t>
+  </si>
+  <si>
+    <t>Ventas,compras,reportes,etc</t>
+  </si>
+  <si>
+    <t>Combo de productos agregar ajax para que permita buscar por descripcion ya que solo carga 50</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,12 +249,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -265,22 +262,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,9 +651,6 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -666,19 +659,16 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>53</v>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
@@ -717,8 +707,11 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>54</v>
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,15 +719,23 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -910,310 +911,310 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yessy\Desktop\PROYECTO\comercializadora\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\comer\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AC80B8-9726-46ED-B329-2E8286DB9D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0BA09E-70C2-4773-BEDD-267B8F041F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -182,9 +184,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>falta bd</t>
   </si>
   <si>
     <t>Agregar Modulo Bitacoras</t>
@@ -269,14 +268,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,12 +608,12 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>49</v>
@@ -708,7 +707,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>49</v>
@@ -719,23 +718,23 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
         <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
         <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -746,10 +745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:K22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,62 +910,62 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -981,7 +980,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
@@ -996,7 +995,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -1010,11 +1009,8 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
@@ -1029,7 +1025,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -1044,52 +1040,52 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -1103,26 +1099,23 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
@@ -1137,7 +1130,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -1152,69 +1145,69 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\comer\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comer\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0BA09E-70C2-4773-BEDD-267B8F041F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -208,12 +207,18 @@
   </si>
   <si>
     <t>Combo de productos agregar ajax para que permita buscar por descripcion ya que solo carga 50</t>
+  </si>
+  <si>
+    <t>falta mostrar los rangos de precios</t>
+  </si>
+  <si>
+    <t>&lt;&lt;-- este no era en otro modulo?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -268,14 +273,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -744,11 +749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19:L26"/>
+      <selection activeCell="A24" sqref="A24:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,62 +915,62 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -980,7 +985,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
@@ -995,7 +1000,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -1010,7 +1015,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
@@ -1025,7 +1030,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -1040,52 +1045,55 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -1100,22 +1108,22 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
@@ -1130,7 +1138,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -1145,22 +1153,22 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>46</v>
       </c>
@@ -1175,39 +1183,42 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>Combo de productos agregar ajax para que permita buscar por descripcion ya que solo carga 50</t>
-  </si>
-  <si>
-    <t>falta mostrar los rangos de precios</t>
   </si>
   <si>
     <t>&lt;&lt;-- este no era en otro modulo?</t>
@@ -273,14 +270,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,7 +750,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:K24"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,60 +912,60 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1059,9 +1056,6 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -1079,19 +1073,19 @@
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -1154,19 +1148,19 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -1184,41 +1178,41 @@
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
       <c r="L31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comer\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yessy\Desktop\PROYECTO\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D195E51-5C35-4934-B8AF-2D1334E01787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -215,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,14 +269,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,17 +591,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="37.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,16 +649,22 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -716,16 +722,22 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
@@ -746,10 +758,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -912,60 +924,60 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1148,19 +1160,19 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -1178,41 +1190,41 @@
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
       <c r="L31" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yessy\Desktop\PROYECTO\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D195E51-5C35-4934-B8AF-2D1334E01787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186102FE-0108-4F87-8572-7761113DEAFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Modulo Ventas: Agrega Campo para introducir cuanto le estan pagando y el sistema le diga cuando le corresponde de cambios</t>
   </si>
@@ -269,14 +269,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,7 +595,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,8 +690,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -924,60 +927,60 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1160,19 +1163,19 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -1190,41 +1193,41 @@
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
       <c r="L31" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/Actividades3.xlsx
+++ b/Analisis/Actividades3.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yessy\Desktop\PROYECTO\comercializadora\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\comer\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186102FE-0108-4F87-8572-7761113DEAFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CF9877-E9CE-43BD-9F08-930221433793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Modulo de Ventas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -269,14 +271,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -764,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,60 +929,60 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1163,19 +1165,19 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -1193,41 +1195,41 @@
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
       <c r="L31" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
